--- a/Corrupt_file.xlsx
+++ b/Corrupt_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d398a4b89c426f69/Dokumenter/GitHub/GradingProgram/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freho\OneDrive\Dokumenter\GitHub\GradingProgram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE6A3684-BF8D-471F-97A7-C65F6DC5A7BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4D305B-C6BB-483A-96F1-631894C90E1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4F00C36A-9ADD-432F-89F7-B15F12995A7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{4F00C36A-9ADD-432F-89F7-B15F12995A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>S333333,LALA,LELE,LILI,LOLO</t>
   </si>
   <si>
-    <t>S444444,LULU,LØLØ,LÆLÆ,LÅLÅ</t>
+    <t>S444444,LULU,LØLØk,LÆLÆ,LÅLÅ</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
